--- a/Class_III/Result.xlsx
+++ b/Class_III/Result.xlsx
@@ -91,15 +91,6 @@
     <t>FA-I_Computer_pass</t>
   </si>
   <si>
-    <t>FA-I_General Knowledge</t>
-  </si>
-  <si>
-    <t>FA-I_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>FA-I_General Knowledge_pass</t>
-  </si>
-  <si>
     <t>FA-I_Drawing</t>
   </si>
   <si>
@@ -116,6 +107,15 @@
   </si>
   <si>
     <t>FA-I_Moral Science_pass</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge_pass</t>
   </si>
   <si>
     <t>FA-II_Maths</t>
@@ -181,15 +181,6 @@
     <t>FA-II_Computer_pass</t>
   </si>
   <si>
-    <t>FA-II_General Knowledge</t>
-  </si>
-  <si>
-    <t>FA-II_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>FA-II_General Knowledge_pass</t>
-  </si>
-  <si>
     <t>FA-II_Drawing</t>
   </si>
   <si>
@@ -206,6 +197,15 @@
   </si>
   <si>
     <t>FA-II_Moral Science_pass</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge_pass</t>
   </si>
   <si>
     <t>HY_Maths</t>
@@ -271,15 +271,6 @@
     <t>HY_Computer_pass</t>
   </si>
   <si>
-    <t>HY_General Knowledge</t>
-  </si>
-  <si>
-    <t>HY_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>HY_General Knowledge_pass</t>
-  </si>
-  <si>
     <t>HY_Drawing</t>
   </si>
   <si>
@@ -296,6 +287,15 @@
   </si>
   <si>
     <t>HY_Moral Science_pass</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge_pass</t>
   </si>
   <si>
     <t>Weightage Maths</t>
@@ -319,13 +319,13 @@
     <t>Weightage Computer</t>
   </si>
   <si>
-    <t>Weightage General Knowledge</t>
-  </si>
-  <si>
     <t>Weightage Drawing</t>
   </si>
   <si>
     <t>Weightage Moral Science</t>
+  </si>
+  <si>
+    <t>Weightage General Knowledge</t>
   </si>
   <si>
     <t>Weightage Maths total</t>
@@ -349,13 +349,13 @@
     <t>Weightage Computer total</t>
   </si>
   <si>
-    <t>Weightage General Knowledge total</t>
-  </si>
-  <si>
     <t>Weightage Drawing total</t>
   </si>
   <si>
     <t>Weightage Moral Science total</t>
+  </si>
+  <si>
+    <t>Weightage General Knowledge total</t>
   </si>
   <si>
     <t>Result Maths</t>
@@ -379,13 +379,13 @@
     <t>Result Computer</t>
   </si>
   <si>
-    <t>Result General Knowledge</t>
-  </si>
-  <si>
     <t>Result Drawing</t>
   </si>
   <si>
     <t>Result Moral Science</t>
+  </si>
+  <si>
+    <t>Result General Knowledge</t>
   </si>
   <si>
     <t>Total Weightage</t>
@@ -1575,7 +1575,7 @@
         <v>30</v>
       </c>
       <c r="CH2">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="CI2">
         <v>100</v>
@@ -1584,7 +1584,7 @@
         <v>30</v>
       </c>
       <c r="CK2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="CL2">
         <v>100</v>
@@ -1593,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="CN2">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="CO2">
         <v>100</v>
@@ -1623,13 +1623,13 @@
         <v>98.40000000000001</v>
       </c>
       <c r="CX2">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="CY2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="CZ2">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="DA2">
         <v>100</v>
@@ -1692,7 +1692,7 @@
         <v>182</v>
       </c>
       <c r="DU2">
-        <v>909.8000000000001</v>
+        <v>949.8000000000001</v>
       </c>
       <c r="DV2" t="s">
         <v>182</v>
@@ -1701,7 +1701,7 @@
         <v>1000</v>
       </c>
       <c r="DX2">
-        <v>90.98</v>
+        <v>94.98</v>
       </c>
       <c r="DY2">
         <v>1</v>
@@ -1964,25 +1964,25 @@
         <v>30</v>
       </c>
       <c r="CH3">
+        <v>74</v>
+      </c>
+      <c r="CI3">
+        <v>100</v>
+      </c>
+      <c r="CJ3">
+        <v>30</v>
+      </c>
+      <c r="CK3">
+        <v>51</v>
+      </c>
+      <c r="CL3">
+        <v>100</v>
+      </c>
+      <c r="CM3">
+        <v>30</v>
+      </c>
+      <c r="CN3">
         <v>70</v>
-      </c>
-      <c r="CI3">
-        <v>100</v>
-      </c>
-      <c r="CJ3">
-        <v>30</v>
-      </c>
-      <c r="CK3">
-        <v>74</v>
-      </c>
-      <c r="CL3">
-        <v>100</v>
-      </c>
-      <c r="CM3">
-        <v>30</v>
-      </c>
-      <c r="CN3">
-        <v>51</v>
       </c>
       <c r="CO3">
         <v>100</v>
@@ -2012,13 +2012,13 @@
         <v>66.40000000000001</v>
       </c>
       <c r="CX3">
+        <v>74</v>
+      </c>
+      <c r="CY3">
+        <v>51</v>
+      </c>
+      <c r="CZ3">
         <v>70</v>
-      </c>
-      <c r="CY3">
-        <v>74</v>
-      </c>
-      <c r="CZ3">
-        <v>51</v>
       </c>
       <c r="DA3">
         <v>100</v>
@@ -2353,25 +2353,25 @@
         <v>30</v>
       </c>
       <c r="CH4">
+        <v>68</v>
+      </c>
+      <c r="CI4">
+        <v>100</v>
+      </c>
+      <c r="CJ4">
+        <v>30</v>
+      </c>
+      <c r="CK4">
+        <v>26</v>
+      </c>
+      <c r="CL4">
+        <v>100</v>
+      </c>
+      <c r="CM4">
+        <v>30</v>
+      </c>
+      <c r="CN4">
         <v>56</v>
-      </c>
-      <c r="CI4">
-        <v>100</v>
-      </c>
-      <c r="CJ4">
-        <v>30</v>
-      </c>
-      <c r="CK4">
-        <v>68</v>
-      </c>
-      <c r="CL4">
-        <v>100</v>
-      </c>
-      <c r="CM4">
-        <v>30</v>
-      </c>
-      <c r="CN4">
-        <v>26</v>
       </c>
       <c r="CO4">
         <v>100</v>
@@ -2401,13 +2401,13 @@
         <v>34.2</v>
       </c>
       <c r="CX4">
+        <v>68</v>
+      </c>
+      <c r="CY4">
+        <v>26</v>
+      </c>
+      <c r="CZ4">
         <v>56</v>
-      </c>
-      <c r="CY4">
-        <v>68</v>
-      </c>
-      <c r="CZ4">
-        <v>26</v>
       </c>
       <c r="DA4">
         <v>100</v>
@@ -2464,10 +2464,10 @@
         <v>182</v>
       </c>
       <c r="DS4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU4">
         <v>439</v>
@@ -2482,7 +2482,7 @@
         <v>43.9</v>
       </c>
       <c r="DY4">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:129">
@@ -2751,16 +2751,16 @@
         <v>30</v>
       </c>
       <c r="CK5">
+        <v>14</v>
+      </c>
+      <c r="CL5">
+        <v>100</v>
+      </c>
+      <c r="CM5">
+        <v>30</v>
+      </c>
+      <c r="CN5">
         <v>56</v>
-      </c>
-      <c r="CL5">
-        <v>100</v>
-      </c>
-      <c r="CM5">
-        <v>30</v>
-      </c>
-      <c r="CN5">
-        <v>14</v>
       </c>
       <c r="CO5">
         <v>100</v>
@@ -2793,11 +2793,11 @@
         <v>56</v>
       </c>
       <c r="CY5">
+        <v>14</v>
+      </c>
+      <c r="CZ5">
         <v>56</v>
       </c>
-      <c r="CZ5">
-        <v>14</v>
-      </c>
       <c r="DA5">
         <v>100</v>
       </c>
@@ -2853,10 +2853,10 @@
         <v>182</v>
       </c>
       <c r="DS5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU5">
         <v>457.6</v>
@@ -2871,7 +2871,7 @@
         <v>45.76</v>
       </c>
       <c r="DY5">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:129">
@@ -3131,25 +3131,25 @@
         <v>30</v>
       </c>
       <c r="CH6">
+        <v>74</v>
+      </c>
+      <c r="CI6">
+        <v>100</v>
+      </c>
+      <c r="CJ6">
+        <v>30</v>
+      </c>
+      <c r="CK6">
+        <v>87</v>
+      </c>
+      <c r="CL6">
+        <v>100</v>
+      </c>
+      <c r="CM6">
+        <v>30</v>
+      </c>
+      <c r="CN6">
         <v>90</v>
-      </c>
-      <c r="CI6">
-        <v>100</v>
-      </c>
-      <c r="CJ6">
-        <v>30</v>
-      </c>
-      <c r="CK6">
-        <v>74</v>
-      </c>
-      <c r="CL6">
-        <v>100</v>
-      </c>
-      <c r="CM6">
-        <v>30</v>
-      </c>
-      <c r="CN6">
-        <v>87</v>
       </c>
       <c r="CO6">
         <v>100</v>
@@ -3179,13 +3179,13 @@
         <v>82.2</v>
       </c>
       <c r="CX6">
+        <v>74</v>
+      </c>
+      <c r="CY6">
+        <v>87</v>
+      </c>
+      <c r="CZ6">
         <v>90</v>
-      </c>
-      <c r="CY6">
-        <v>74</v>
-      </c>
-      <c r="CZ6">
-        <v>87</v>
       </c>
       <c r="DA6">
         <v>100</v>
@@ -3260,7 +3260,7 @@
         <v>77.84</v>
       </c>
       <c r="DY6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:129">
@@ -3520,25 +3520,25 @@
         <v>30</v>
       </c>
       <c r="CH7">
+        <v>78</v>
+      </c>
+      <c r="CI7">
+        <v>100</v>
+      </c>
+      <c r="CJ7">
+        <v>30</v>
+      </c>
+      <c r="CK7">
+        <v>45</v>
+      </c>
+      <c r="CL7">
+        <v>100</v>
+      </c>
+      <c r="CM7">
+        <v>30</v>
+      </c>
+      <c r="CN7">
         <v>70</v>
-      </c>
-      <c r="CI7">
-        <v>100</v>
-      </c>
-      <c r="CJ7">
-        <v>30</v>
-      </c>
-      <c r="CK7">
-        <v>78</v>
-      </c>
-      <c r="CL7">
-        <v>100</v>
-      </c>
-      <c r="CM7">
-        <v>30</v>
-      </c>
-      <c r="CN7">
-        <v>45</v>
       </c>
       <c r="CO7">
         <v>100</v>
@@ -3568,13 +3568,13 @@
         <v>58.84</v>
       </c>
       <c r="CX7">
+        <v>78</v>
+      </c>
+      <c r="CY7">
+        <v>45</v>
+      </c>
+      <c r="CZ7">
         <v>70</v>
-      </c>
-      <c r="CY7">
-        <v>78</v>
-      </c>
-      <c r="CZ7">
-        <v>45</v>
       </c>
       <c r="DA7">
         <v>100</v>
@@ -3649,7 +3649,7 @@
         <v>68.384</v>
       </c>
       <c r="DY7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:129">
@@ -3909,25 +3909,25 @@
         <v>30</v>
       </c>
       <c r="CH8">
+        <v>50</v>
+      </c>
+      <c r="CI8">
+        <v>100</v>
+      </c>
+      <c r="CJ8">
+        <v>30</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>100</v>
+      </c>
+      <c r="CM8">
+        <v>30</v>
+      </c>
+      <c r="CN8">
         <v>48</v>
-      </c>
-      <c r="CI8">
-        <v>100</v>
-      </c>
-      <c r="CJ8">
-        <v>30</v>
-      </c>
-      <c r="CK8">
-        <v>50</v>
-      </c>
-      <c r="CL8">
-        <v>100</v>
-      </c>
-      <c r="CM8">
-        <v>30</v>
-      </c>
-      <c r="CN8">
-        <v>0</v>
       </c>
       <c r="CO8">
         <v>100</v>
@@ -3957,13 +3957,13 @@
         <v>21.6</v>
       </c>
       <c r="CX8">
+        <v>50</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
         <v>48</v>
-      </c>
-      <c r="CY8">
-        <v>50</v>
-      </c>
-      <c r="CZ8">
-        <v>0</v>
       </c>
       <c r="DA8">
         <v>100</v>
@@ -4020,10 +4020,10 @@
         <v>182</v>
       </c>
       <c r="DS8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU8">
         <v>229.6</v>
@@ -4298,25 +4298,25 @@
         <v>30</v>
       </c>
       <c r="CH9">
+        <v>70</v>
+      </c>
+      <c r="CI9">
+        <v>100</v>
+      </c>
+      <c r="CJ9">
+        <v>30</v>
+      </c>
+      <c r="CK9">
+        <v>29</v>
+      </c>
+      <c r="CL9">
+        <v>100</v>
+      </c>
+      <c r="CM9">
+        <v>30</v>
+      </c>
+      <c r="CN9">
         <v>72</v>
-      </c>
-      <c r="CI9">
-        <v>100</v>
-      </c>
-      <c r="CJ9">
-        <v>30</v>
-      </c>
-      <c r="CK9">
-        <v>70</v>
-      </c>
-      <c r="CL9">
-        <v>100</v>
-      </c>
-      <c r="CM9">
-        <v>30</v>
-      </c>
-      <c r="CN9">
-        <v>29</v>
       </c>
       <c r="CO9">
         <v>100</v>
@@ -4346,13 +4346,13 @@
         <v>35.72</v>
       </c>
       <c r="CX9">
+        <v>70</v>
+      </c>
+      <c r="CY9">
+        <v>29</v>
+      </c>
+      <c r="CZ9">
         <v>72</v>
-      </c>
-      <c r="CY9">
-        <v>70</v>
-      </c>
-      <c r="CZ9">
-        <v>29</v>
       </c>
       <c r="DA9">
         <v>100</v>
@@ -4409,10 +4409,10 @@
         <v>182</v>
       </c>
       <c r="DS9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU9">
         <v>472.3200000000001</v>
@@ -4427,7 +4427,7 @@
         <v>47.23200000000001</v>
       </c>
       <c r="DY9">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:129">
@@ -4687,7 +4687,7 @@
         <v>30</v>
       </c>
       <c r="CH10">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="CI10">
         <v>100</v>
@@ -4696,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="CK10">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CL10">
         <v>100</v>
@@ -4705,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="CN10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="CO10">
         <v>100</v>
@@ -4735,13 +4735,13 @@
         <v>67.2</v>
       </c>
       <c r="CX10">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="CY10">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="CZ10">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="DA10">
         <v>100</v>
@@ -4804,7 +4804,7 @@
         <v>182</v>
       </c>
       <c r="DU10">
-        <v>550.2</v>
+        <v>560.2</v>
       </c>
       <c r="DV10" t="s">
         <v>182</v>
@@ -4813,10 +4813,10 @@
         <v>1000</v>
       </c>
       <c r="DX10">
-        <v>55.02</v>
+        <v>56.02</v>
       </c>
       <c r="DY10">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:129">
@@ -5076,25 +5076,25 @@
         <v>30</v>
       </c>
       <c r="CH11">
+        <v>70</v>
+      </c>
+      <c r="CI11">
+        <v>100</v>
+      </c>
+      <c r="CJ11">
+        <v>30</v>
+      </c>
+      <c r="CK11">
+        <v>60</v>
+      </c>
+      <c r="CL11">
+        <v>100</v>
+      </c>
+      <c r="CM11">
+        <v>30</v>
+      </c>
+      <c r="CN11">
         <v>40</v>
-      </c>
-      <c r="CI11">
-        <v>100</v>
-      </c>
-      <c r="CJ11">
-        <v>30</v>
-      </c>
-      <c r="CK11">
-        <v>70</v>
-      </c>
-      <c r="CL11">
-        <v>100</v>
-      </c>
-      <c r="CM11">
-        <v>30</v>
-      </c>
-      <c r="CN11">
-        <v>60</v>
       </c>
       <c r="CO11">
         <v>100</v>
@@ -5124,13 +5124,13 @@
         <v>61.6</v>
       </c>
       <c r="CX11">
+        <v>70</v>
+      </c>
+      <c r="CY11">
+        <v>60</v>
+      </c>
+      <c r="CZ11">
         <v>40</v>
-      </c>
-      <c r="CY11">
-        <v>70</v>
-      </c>
-      <c r="CZ11">
-        <v>60</v>
       </c>
       <c r="DA11">
         <v>100</v>
@@ -5205,7 +5205,7 @@
         <v>64.94000000000001</v>
       </c>
       <c r="DY11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:129">
@@ -5465,25 +5465,25 @@
         <v>30</v>
       </c>
       <c r="CH12">
+        <v>74</v>
+      </c>
+      <c r="CI12">
+        <v>100</v>
+      </c>
+      <c r="CJ12">
+        <v>30</v>
+      </c>
+      <c r="CK12">
+        <v>49</v>
+      </c>
+      <c r="CL12">
+        <v>100</v>
+      </c>
+      <c r="CM12">
+        <v>30</v>
+      </c>
+      <c r="CN12">
         <v>50</v>
-      </c>
-      <c r="CI12">
-        <v>100</v>
-      </c>
-      <c r="CJ12">
-        <v>30</v>
-      </c>
-      <c r="CK12">
-        <v>74</v>
-      </c>
-      <c r="CL12">
-        <v>100</v>
-      </c>
-      <c r="CM12">
-        <v>30</v>
-      </c>
-      <c r="CN12">
-        <v>49</v>
       </c>
       <c r="CO12">
         <v>100</v>
@@ -5513,13 +5513,13 @@
         <v>61.8</v>
       </c>
       <c r="CX12">
+        <v>74</v>
+      </c>
+      <c r="CY12">
+        <v>49</v>
+      </c>
+      <c r="CZ12">
         <v>50</v>
-      </c>
-      <c r="CY12">
-        <v>74</v>
-      </c>
-      <c r="CZ12">
-        <v>49</v>
       </c>
       <c r="DA12">
         <v>100</v>
@@ -5594,7 +5594,7 @@
         <v>55.06</v>
       </c>
       <c r="DY12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:129">
@@ -5854,25 +5854,25 @@
         <v>30</v>
       </c>
       <c r="CH13">
+        <v>82</v>
+      </c>
+      <c r="CI13">
+        <v>100</v>
+      </c>
+      <c r="CJ13">
+        <v>30</v>
+      </c>
+      <c r="CK13">
+        <v>44</v>
+      </c>
+      <c r="CL13">
+        <v>100</v>
+      </c>
+      <c r="CM13">
+        <v>30</v>
+      </c>
+      <c r="CN13">
         <v>70</v>
-      </c>
-      <c r="CI13">
-        <v>100</v>
-      </c>
-      <c r="CJ13">
-        <v>30</v>
-      </c>
-      <c r="CK13">
-        <v>82</v>
-      </c>
-      <c r="CL13">
-        <v>100</v>
-      </c>
-      <c r="CM13">
-        <v>30</v>
-      </c>
-      <c r="CN13">
-        <v>44</v>
       </c>
       <c r="CO13">
         <v>100</v>
@@ -5902,13 +5902,13 @@
         <v>49.04</v>
       </c>
       <c r="CX13">
+        <v>82</v>
+      </c>
+      <c r="CY13">
+        <v>44</v>
+      </c>
+      <c r="CZ13">
         <v>70</v>
-      </c>
-      <c r="CY13">
-        <v>82</v>
-      </c>
-      <c r="CZ13">
-        <v>44</v>
       </c>
       <c r="DA13">
         <v>100</v>
@@ -5983,7 +5983,7 @@
         <v>57.94400000000001</v>
       </c>
       <c r="DY13">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:129">
@@ -6243,7 +6243,7 @@
         <v>30</v>
       </c>
       <c r="CH14">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="CI14">
         <v>100</v>
@@ -6252,7 +6252,7 @@
         <v>30</v>
       </c>
       <c r="CK14">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="CL14">
         <v>100</v>
@@ -6261,7 +6261,7 @@
         <v>30</v>
       </c>
       <c r="CN14">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="CO14">
         <v>100</v>
@@ -6291,13 +6291,13 @@
         <v>27.6</v>
       </c>
       <c r="CX14">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="CY14">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="CZ14">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="DA14">
         <v>100</v>
@@ -6351,16 +6351,16 @@
         <v>183</v>
       </c>
       <c r="DR14" t="s">
+        <v>182</v>
+      </c>
+      <c r="DS14" t="s">
         <v>183</v>
       </c>
-      <c r="DS14" t="s">
-        <v>182</v>
-      </c>
       <c r="DT14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU14">
-        <v>413.6</v>
+        <v>473.6</v>
       </c>
       <c r="DV14" t="s">
         <v>182</v>
@@ -6369,10 +6369,10 @@
         <v>1000</v>
       </c>
       <c r="DX14">
-        <v>41.36</v>
+        <v>47.36</v>
       </c>
       <c r="DY14">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:129">
@@ -6632,25 +6632,25 @@
         <v>30</v>
       </c>
       <c r="CH15">
+        <v>64</v>
+      </c>
+      <c r="CI15">
+        <v>100</v>
+      </c>
+      <c r="CJ15">
+        <v>30</v>
+      </c>
+      <c r="CK15">
+        <v>23</v>
+      </c>
+      <c r="CL15">
+        <v>100</v>
+      </c>
+      <c r="CM15">
+        <v>30</v>
+      </c>
+      <c r="CN15">
         <v>70</v>
-      </c>
-      <c r="CI15">
-        <v>100</v>
-      </c>
-      <c r="CJ15">
-        <v>30</v>
-      </c>
-      <c r="CK15">
-        <v>64</v>
-      </c>
-      <c r="CL15">
-        <v>100</v>
-      </c>
-      <c r="CM15">
-        <v>30</v>
-      </c>
-      <c r="CN15">
-        <v>23</v>
       </c>
       <c r="CO15">
         <v>100</v>
@@ -6680,14 +6680,14 @@
         <v>60.24</v>
       </c>
       <c r="CX15">
+        <v>64</v>
+      </c>
+      <c r="CY15">
+        <v>23</v>
+      </c>
+      <c r="CZ15">
         <v>70</v>
       </c>
-      <c r="CY15">
-        <v>64</v>
-      </c>
-      <c r="CZ15">
-        <v>23</v>
-      </c>
       <c r="DA15">
         <v>100</v>
       </c>
@@ -6743,10 +6743,10 @@
         <v>182</v>
       </c>
       <c r="DS15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU15">
         <v>563.0400000000001</v>
@@ -6761,7 +6761,7 @@
         <v>56.30400000000001</v>
       </c>
       <c r="DY15">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:129">
@@ -7021,7 +7021,7 @@
         <v>30</v>
       </c>
       <c r="CH16">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="CI16">
         <v>100</v>
@@ -7030,7 +7030,7 @@
         <v>30</v>
       </c>
       <c r="CK16">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="CL16">
         <v>100</v>
@@ -7039,7 +7039,7 @@
         <v>30</v>
       </c>
       <c r="CN16">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="CO16">
         <v>100</v>
@@ -7069,13 +7069,13 @@
         <v>37.2</v>
       </c>
       <c r="CX16">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="CY16">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="CZ16">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="DA16">
         <v>100</v>
@@ -7132,13 +7132,13 @@
         <v>182</v>
       </c>
       <c r="DS16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU16">
-        <v>357.2</v>
+        <v>377.2</v>
       </c>
       <c r="DV16" t="s">
         <v>182</v>
@@ -7147,10 +7147,10 @@
         <v>1000</v>
       </c>
       <c r="DX16">
-        <v>35.72</v>
+        <v>37.72</v>
       </c>
       <c r="DY16">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:129">
@@ -7410,7 +7410,7 @@
         <v>30</v>
       </c>
       <c r="CH17">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="CI17">
         <v>100</v>
@@ -7419,7 +7419,7 @@
         <v>30</v>
       </c>
       <c r="CK17">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="CL17">
         <v>100</v>
@@ -7428,7 +7428,7 @@
         <v>30</v>
       </c>
       <c r="CN17">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="CO17">
         <v>100</v>
@@ -7458,13 +7458,13 @@
         <v>60.4</v>
       </c>
       <c r="CX17">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="CY17">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="CZ17">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="DA17">
         <v>100</v>
@@ -7518,7 +7518,7 @@
         <v>182</v>
       </c>
       <c r="DR17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DS17" t="s">
         <v>182</v>
@@ -7527,7 +7527,7 @@
         <v>182</v>
       </c>
       <c r="DU17">
-        <v>514.8</v>
+        <v>598.8</v>
       </c>
       <c r="DV17" t="s">
         <v>182</v>
@@ -7536,10 +7536,10 @@
         <v>1000</v>
       </c>
       <c r="DX17">
-        <v>51.47999999999999</v>
+        <v>59.88</v>
       </c>
       <c r="DY17">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:129">
@@ -7799,7 +7799,7 @@
         <v>30</v>
       </c>
       <c r="CH18">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="CI18">
         <v>100</v>
@@ -7808,7 +7808,7 @@
         <v>30</v>
       </c>
       <c r="CK18">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="CL18">
         <v>100</v>
@@ -7817,7 +7817,7 @@
         <v>30</v>
       </c>
       <c r="CN18">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="CO18">
         <v>100</v>
@@ -7847,13 +7847,13 @@
         <v>34.4</v>
       </c>
       <c r="CX18">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="CY18">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="CZ18">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="DA18">
         <v>100</v>
@@ -7910,13 +7910,13 @@
         <v>182</v>
       </c>
       <c r="DS18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU18">
-        <v>245.6</v>
+        <v>265.6</v>
       </c>
       <c r="DV18" t="s">
         <v>183</v>
@@ -7925,7 +7925,7 @@
         <v>1000</v>
       </c>
       <c r="DX18">
-        <v>24.56</v>
+        <v>26.56</v>
       </c>
       <c r="DY18">
         <v>48</v>
@@ -8188,25 +8188,25 @@
         <v>30</v>
       </c>
       <c r="CH19">
+        <v>58</v>
+      </c>
+      <c r="CI19">
+        <v>100</v>
+      </c>
+      <c r="CJ19">
+        <v>30</v>
+      </c>
+      <c r="CK19">
+        <v>62</v>
+      </c>
+      <c r="CL19">
+        <v>100</v>
+      </c>
+      <c r="CM19">
+        <v>30</v>
+      </c>
+      <c r="CN19">
         <v>92</v>
-      </c>
-      <c r="CI19">
-        <v>100</v>
-      </c>
-      <c r="CJ19">
-        <v>30</v>
-      </c>
-      <c r="CK19">
-        <v>58</v>
-      </c>
-      <c r="CL19">
-        <v>100</v>
-      </c>
-      <c r="CM19">
-        <v>30</v>
-      </c>
-      <c r="CN19">
-        <v>62</v>
       </c>
       <c r="CO19">
         <v>100</v>
@@ -8236,13 +8236,13 @@
         <v>49.8</v>
       </c>
       <c r="CX19">
+        <v>58</v>
+      </c>
+      <c r="CY19">
+        <v>62</v>
+      </c>
+      <c r="CZ19">
         <v>92</v>
-      </c>
-      <c r="CY19">
-        <v>58</v>
-      </c>
-      <c r="CZ19">
-        <v>62</v>
       </c>
       <c r="DA19">
         <v>100</v>
@@ -8317,7 +8317,7 @@
         <v>56.68</v>
       </c>
       <c r="DY19">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:129">
@@ -8577,25 +8577,25 @@
         <v>30</v>
       </c>
       <c r="CH20">
+        <v>72</v>
+      </c>
+      <c r="CI20">
+        <v>100</v>
+      </c>
+      <c r="CJ20">
+        <v>30</v>
+      </c>
+      <c r="CK20">
+        <v>20</v>
+      </c>
+      <c r="CL20">
+        <v>100</v>
+      </c>
+      <c r="CM20">
+        <v>30</v>
+      </c>
+      <c r="CN20">
         <v>50</v>
-      </c>
-      <c r="CI20">
-        <v>100</v>
-      </c>
-      <c r="CJ20">
-        <v>30</v>
-      </c>
-      <c r="CK20">
-        <v>72</v>
-      </c>
-      <c r="CL20">
-        <v>100</v>
-      </c>
-      <c r="CM20">
-        <v>30</v>
-      </c>
-      <c r="CN20">
-        <v>20</v>
       </c>
       <c r="CO20">
         <v>100</v>
@@ -8625,13 +8625,13 @@
         <v>19.84</v>
       </c>
       <c r="CX20">
+        <v>72</v>
+      </c>
+      <c r="CY20">
+        <v>20</v>
+      </c>
+      <c r="CZ20">
         <v>50</v>
-      </c>
-      <c r="CY20">
-        <v>72</v>
-      </c>
-      <c r="CZ20">
-        <v>20</v>
       </c>
       <c r="DA20">
         <v>100</v>
@@ -8688,10 +8688,10 @@
         <v>182</v>
       </c>
       <c r="DS20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU20">
         <v>429.84</v>
@@ -8706,7 +8706,7 @@
         <v>42.984</v>
       </c>
       <c r="DY20">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:129">
@@ -8966,25 +8966,25 @@
         <v>30</v>
       </c>
       <c r="CH21">
+        <v>76</v>
+      </c>
+      <c r="CI21">
+        <v>100</v>
+      </c>
+      <c r="CJ21">
+        <v>30</v>
+      </c>
+      <c r="CK21">
+        <v>46</v>
+      </c>
+      <c r="CL21">
+        <v>100</v>
+      </c>
+      <c r="CM21">
+        <v>30</v>
+      </c>
+      <c r="CN21">
         <v>70</v>
-      </c>
-      <c r="CI21">
-        <v>100</v>
-      </c>
-      <c r="CJ21">
-        <v>30</v>
-      </c>
-      <c r="CK21">
-        <v>76</v>
-      </c>
-      <c r="CL21">
-        <v>100</v>
-      </c>
-      <c r="CM21">
-        <v>30</v>
-      </c>
-      <c r="CN21">
-        <v>46</v>
       </c>
       <c r="CO21">
         <v>100</v>
@@ -9014,13 +9014,13 @@
         <v>66.7</v>
       </c>
       <c r="CX21">
+        <v>76</v>
+      </c>
+      <c r="CY21">
+        <v>46</v>
+      </c>
+      <c r="CZ21">
         <v>70</v>
-      </c>
-      <c r="CY21">
-        <v>76</v>
-      </c>
-      <c r="CZ21">
-        <v>46</v>
       </c>
       <c r="DA21">
         <v>100</v>
@@ -9095,7 +9095,7 @@
         <v>62.77</v>
       </c>
       <c r="DY21">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:129">
@@ -9355,7 +9355,7 @@
         <v>30</v>
       </c>
       <c r="CH22">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="CI22">
         <v>100</v>
@@ -9364,7 +9364,7 @@
         <v>30</v>
       </c>
       <c r="CK22">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="CL22">
         <v>100</v>
@@ -9373,7 +9373,7 @@
         <v>30</v>
       </c>
       <c r="CN22">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="CO22">
         <v>100</v>
@@ -9403,13 +9403,13 @@
         <v>20</v>
       </c>
       <c r="CX22">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="CY22">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="CZ22">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="DA22">
         <v>100</v>
@@ -9466,13 +9466,13 @@
         <v>182</v>
       </c>
       <c r="DS22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU22">
-        <v>269.8</v>
+        <v>289.8</v>
       </c>
       <c r="DV22" t="s">
         <v>183</v>
@@ -9481,7 +9481,7 @@
         <v>1000</v>
       </c>
       <c r="DX22">
-        <v>26.98</v>
+        <v>28.98</v>
       </c>
       <c r="DY22">
         <v>47</v>
@@ -9744,7 +9744,7 @@
         <v>30</v>
       </c>
       <c r="CH23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CI23">
         <v>100</v>
@@ -9753,16 +9753,16 @@
         <v>30</v>
       </c>
       <c r="CK23">
+        <v>42</v>
+      </c>
+      <c r="CL23">
+        <v>100</v>
+      </c>
+      <c r="CM23">
+        <v>30</v>
+      </c>
+      <c r="CN23">
         <v>50</v>
-      </c>
-      <c r="CL23">
-        <v>100</v>
-      </c>
-      <c r="CM23">
-        <v>30</v>
-      </c>
-      <c r="CN23">
-        <v>42</v>
       </c>
       <c r="CO23">
         <v>100</v>
@@ -9792,13 +9792,13 @@
         <v>42.4</v>
       </c>
       <c r="CX23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CY23">
+        <v>42</v>
+      </c>
+      <c r="CZ23">
         <v>50</v>
-      </c>
-      <c r="CZ23">
-        <v>42</v>
       </c>
       <c r="DA23">
         <v>100</v>
@@ -9852,7 +9852,7 @@
         <v>182</v>
       </c>
       <c r="DR23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DS23" t="s">
         <v>182</v>
@@ -9861,7 +9861,7 @@
         <v>182</v>
       </c>
       <c r="DU23">
-        <v>324.2</v>
+        <v>374.2</v>
       </c>
       <c r="DV23" t="s">
         <v>182</v>
@@ -9870,10 +9870,10 @@
         <v>1000</v>
       </c>
       <c r="DX23">
-        <v>32.42</v>
+        <v>37.42</v>
       </c>
       <c r="DY23">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:129">
@@ -10133,25 +10133,25 @@
         <v>30</v>
       </c>
       <c r="CH24">
+        <v>70</v>
+      </c>
+      <c r="CI24">
+        <v>100</v>
+      </c>
+      <c r="CJ24">
+        <v>30</v>
+      </c>
+      <c r="CK24">
+        <v>40</v>
+      </c>
+      <c r="CL24">
+        <v>100</v>
+      </c>
+      <c r="CM24">
+        <v>30</v>
+      </c>
+      <c r="CN24">
         <v>92</v>
-      </c>
-      <c r="CI24">
-        <v>100</v>
-      </c>
-      <c r="CJ24">
-        <v>30</v>
-      </c>
-      <c r="CK24">
-        <v>70</v>
-      </c>
-      <c r="CL24">
-        <v>100</v>
-      </c>
-      <c r="CM24">
-        <v>30</v>
-      </c>
-      <c r="CN24">
-        <v>40</v>
       </c>
       <c r="CO24">
         <v>100</v>
@@ -10181,13 +10181,13 @@
         <v>80.40000000000001</v>
       </c>
       <c r="CX24">
+        <v>70</v>
+      </c>
+      <c r="CY24">
+        <v>40</v>
+      </c>
+      <c r="CZ24">
         <v>92</v>
-      </c>
-      <c r="CY24">
-        <v>70</v>
-      </c>
-      <c r="CZ24">
-        <v>40</v>
       </c>
       <c r="DA24">
         <v>100</v>
@@ -10522,25 +10522,25 @@
         <v>30</v>
       </c>
       <c r="CH25">
+        <v>76</v>
+      </c>
+      <c r="CI25">
+        <v>100</v>
+      </c>
+      <c r="CJ25">
+        <v>30</v>
+      </c>
+      <c r="CK25">
+        <v>22</v>
+      </c>
+      <c r="CL25">
+        <v>100</v>
+      </c>
+      <c r="CM25">
+        <v>30</v>
+      </c>
+      <c r="CN25">
         <v>50</v>
-      </c>
-      <c r="CI25">
-        <v>100</v>
-      </c>
-      <c r="CJ25">
-        <v>30</v>
-      </c>
-      <c r="CK25">
-        <v>76</v>
-      </c>
-      <c r="CL25">
-        <v>100</v>
-      </c>
-      <c r="CM25">
-        <v>30</v>
-      </c>
-      <c r="CN25">
-        <v>22</v>
       </c>
       <c r="CO25">
         <v>100</v>
@@ -10570,13 +10570,13 @@
         <v>36.52</v>
       </c>
       <c r="CX25">
+        <v>76</v>
+      </c>
+      <c r="CY25">
+        <v>22</v>
+      </c>
+      <c r="CZ25">
         <v>50</v>
-      </c>
-      <c r="CY25">
-        <v>76</v>
-      </c>
-      <c r="CZ25">
-        <v>22</v>
       </c>
       <c r="DA25">
         <v>100</v>
@@ -10633,10 +10633,10 @@
         <v>182</v>
       </c>
       <c r="DS25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU25">
         <v>410.52</v>
@@ -10929,7 +10929,7 @@
         <v>30</v>
       </c>
       <c r="CN26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CO26">
         <v>100</v>
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="CZ26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DA26">
         <v>100</v>
@@ -11025,10 +11025,10 @@
         <v>183</v>
       </c>
       <c r="DT26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU26">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="DV26" t="s">
         <v>183</v>
@@ -11037,10 +11037,10 @@
         <v>1000</v>
       </c>
       <c r="DX26">
-        <v>6.4</v>
+        <v>11.4</v>
       </c>
       <c r="DY26">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:129">
@@ -11300,25 +11300,25 @@
         <v>30</v>
       </c>
       <c r="CH27">
+        <v>64</v>
+      </c>
+      <c r="CI27">
+        <v>100</v>
+      </c>
+      <c r="CJ27">
+        <v>30</v>
+      </c>
+      <c r="CK27">
+        <v>63</v>
+      </c>
+      <c r="CL27">
+        <v>100</v>
+      </c>
+      <c r="CM27">
+        <v>30</v>
+      </c>
+      <c r="CN27">
         <v>80</v>
-      </c>
-      <c r="CI27">
-        <v>100</v>
-      </c>
-      <c r="CJ27">
-        <v>30</v>
-      </c>
-      <c r="CK27">
-        <v>64</v>
-      </c>
-      <c r="CL27">
-        <v>100</v>
-      </c>
-      <c r="CM27">
-        <v>30</v>
-      </c>
-      <c r="CN27">
-        <v>63</v>
       </c>
       <c r="CO27">
         <v>100</v>
@@ -11348,13 +11348,13 @@
         <v>68.2</v>
       </c>
       <c r="CX27">
+        <v>64</v>
+      </c>
+      <c r="CY27">
+        <v>63</v>
+      </c>
+      <c r="CZ27">
         <v>80</v>
-      </c>
-      <c r="CY27">
-        <v>64</v>
-      </c>
-      <c r="CZ27">
-        <v>63</v>
       </c>
       <c r="DA27">
         <v>100</v>
@@ -11429,7 +11429,7 @@
         <v>66.38</v>
       </c>
       <c r="DY27">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:129">
@@ -11689,25 +11689,25 @@
         <v>30</v>
       </c>
       <c r="CH28">
+        <v>68</v>
+      </c>
+      <c r="CI28">
+        <v>100</v>
+      </c>
+      <c r="CJ28">
+        <v>30</v>
+      </c>
+      <c r="CK28">
+        <v>76</v>
+      </c>
+      <c r="CL28">
+        <v>100</v>
+      </c>
+      <c r="CM28">
+        <v>30</v>
+      </c>
+      <c r="CN28">
         <v>64</v>
-      </c>
-      <c r="CI28">
-        <v>100</v>
-      </c>
-      <c r="CJ28">
-        <v>30</v>
-      </c>
-      <c r="CK28">
-        <v>68</v>
-      </c>
-      <c r="CL28">
-        <v>100</v>
-      </c>
-      <c r="CM28">
-        <v>30</v>
-      </c>
-      <c r="CN28">
-        <v>76</v>
       </c>
       <c r="CO28">
         <v>100</v>
@@ -11737,13 +11737,13 @@
         <v>80.8</v>
       </c>
       <c r="CX28">
+        <v>68</v>
+      </c>
+      <c r="CY28">
+        <v>76</v>
+      </c>
+      <c r="CZ28">
         <v>64</v>
-      </c>
-      <c r="CY28">
-        <v>68</v>
-      </c>
-      <c r="CZ28">
-        <v>76</v>
       </c>
       <c r="DA28">
         <v>100</v>
@@ -11818,7 +11818,7 @@
         <v>72.94</v>
       </c>
       <c r="DY28">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:129">
@@ -12078,25 +12078,25 @@
         <v>30</v>
       </c>
       <c r="CH29">
+        <v>76</v>
+      </c>
+      <c r="CI29">
+        <v>100</v>
+      </c>
+      <c r="CJ29">
+        <v>30</v>
+      </c>
+      <c r="CK29">
+        <v>16</v>
+      </c>
+      <c r="CL29">
+        <v>100</v>
+      </c>
+      <c r="CM29">
+        <v>30</v>
+      </c>
+      <c r="CN29">
         <v>42</v>
-      </c>
-      <c r="CI29">
-        <v>100</v>
-      </c>
-      <c r="CJ29">
-        <v>30</v>
-      </c>
-      <c r="CK29">
-        <v>76</v>
-      </c>
-      <c r="CL29">
-        <v>100</v>
-      </c>
-      <c r="CM29">
-        <v>30</v>
-      </c>
-      <c r="CN29">
-        <v>16</v>
       </c>
       <c r="CO29">
         <v>100</v>
@@ -12126,14 +12126,14 @@
         <v>41</v>
       </c>
       <c r="CX29">
+        <v>76</v>
+      </c>
+      <c r="CY29">
+        <v>16</v>
+      </c>
+      <c r="CZ29">
         <v>42</v>
       </c>
-      <c r="CY29">
-        <v>76</v>
-      </c>
-      <c r="CZ29">
-        <v>16</v>
-      </c>
       <c r="DA29">
         <v>100</v>
       </c>
@@ -12189,10 +12189,10 @@
         <v>182</v>
       </c>
       <c r="DS29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU29">
         <v>429.8</v>
@@ -12207,7 +12207,7 @@
         <v>42.98</v>
       </c>
       <c r="DY29">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:129">
@@ -12467,25 +12467,25 @@
         <v>30</v>
       </c>
       <c r="CH30">
+        <v>54</v>
+      </c>
+      <c r="CI30">
+        <v>100</v>
+      </c>
+      <c r="CJ30">
+        <v>30</v>
+      </c>
+      <c r="CK30">
+        <v>24</v>
+      </c>
+      <c r="CL30">
+        <v>100</v>
+      </c>
+      <c r="CM30">
+        <v>30</v>
+      </c>
+      <c r="CN30">
         <v>60</v>
-      </c>
-      <c r="CI30">
-        <v>100</v>
-      </c>
-      <c r="CJ30">
-        <v>30</v>
-      </c>
-      <c r="CK30">
-        <v>54</v>
-      </c>
-      <c r="CL30">
-        <v>100</v>
-      </c>
-      <c r="CM30">
-        <v>30</v>
-      </c>
-      <c r="CN30">
-        <v>24</v>
       </c>
       <c r="CO30">
         <v>100</v>
@@ -12515,14 +12515,14 @@
         <v>56.84</v>
       </c>
       <c r="CX30">
+        <v>54</v>
+      </c>
+      <c r="CY30">
+        <v>24</v>
+      </c>
+      <c r="CZ30">
         <v>60</v>
       </c>
-      <c r="CY30">
-        <v>54</v>
-      </c>
-      <c r="CZ30">
-        <v>24</v>
-      </c>
       <c r="DA30">
         <v>100</v>
       </c>
@@ -12578,10 +12578,10 @@
         <v>182</v>
       </c>
       <c r="DS30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU30">
         <v>503.6400000000001</v>
@@ -12865,16 +12865,16 @@
         <v>30</v>
       </c>
       <c r="CK31">
+        <v>68</v>
+      </c>
+      <c r="CL31">
+        <v>100</v>
+      </c>
+      <c r="CM31">
+        <v>30</v>
+      </c>
+      <c r="CN31">
         <v>74</v>
-      </c>
-      <c r="CL31">
-        <v>100</v>
-      </c>
-      <c r="CM31">
-        <v>30</v>
-      </c>
-      <c r="CN31">
-        <v>68</v>
       </c>
       <c r="CO31">
         <v>100</v>
@@ -12907,10 +12907,10 @@
         <v>74</v>
       </c>
       <c r="CY31">
+        <v>68</v>
+      </c>
+      <c r="CZ31">
         <v>74</v>
-      </c>
-      <c r="CZ31">
-        <v>68</v>
       </c>
       <c r="DA31">
         <v>100</v>
@@ -12985,7 +12985,7 @@
         <v>62.4</v>
       </c>
       <c r="DY31">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:129">
@@ -13245,25 +13245,25 @@
         <v>30</v>
       </c>
       <c r="CH32">
+        <v>58</v>
+      </c>
+      <c r="CI32">
+        <v>100</v>
+      </c>
+      <c r="CJ32">
+        <v>30</v>
+      </c>
+      <c r="CK32">
+        <v>40</v>
+      </c>
+      <c r="CL32">
+        <v>100</v>
+      </c>
+      <c r="CM32">
+        <v>30</v>
+      </c>
+      <c r="CN32">
         <v>50</v>
-      </c>
-      <c r="CI32">
-        <v>100</v>
-      </c>
-      <c r="CJ32">
-        <v>30</v>
-      </c>
-      <c r="CK32">
-        <v>58</v>
-      </c>
-      <c r="CL32">
-        <v>100</v>
-      </c>
-      <c r="CM32">
-        <v>30</v>
-      </c>
-      <c r="CN32">
-        <v>40</v>
       </c>
       <c r="CO32">
         <v>100</v>
@@ -13293,13 +13293,13 @@
         <v>39</v>
       </c>
       <c r="CX32">
+        <v>58</v>
+      </c>
+      <c r="CY32">
+        <v>40</v>
+      </c>
+      <c r="CZ32">
         <v>50</v>
-      </c>
-      <c r="CY32">
-        <v>58</v>
-      </c>
-      <c r="CZ32">
-        <v>40</v>
       </c>
       <c r="DA32">
         <v>100</v>
@@ -13374,7 +13374,7 @@
         <v>45.18000000000001</v>
       </c>
       <c r="DY32">
-        <v>30</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="33" spans="1:129">
@@ -13634,7 +13634,7 @@
         <v>30</v>
       </c>
       <c r="CH33">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CI33">
         <v>100</v>
@@ -13643,7 +13643,7 @@
         <v>30</v>
       </c>
       <c r="CK33">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="CL33">
         <v>100</v>
@@ -13652,7 +13652,7 @@
         <v>30</v>
       </c>
       <c r="CN33">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="CO33">
         <v>100</v>
@@ -13682,13 +13682,13 @@
         <v>3</v>
       </c>
       <c r="CX33">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CY33">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="CZ33">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="DA33">
         <v>100</v>
@@ -13745,13 +13745,13 @@
         <v>182</v>
       </c>
       <c r="DS33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU33">
-        <v>108.4</v>
+        <v>112.4</v>
       </c>
       <c r="DV33" t="s">
         <v>183</v>
@@ -13760,10 +13760,10 @@
         <v>1000</v>
       </c>
       <c r="DX33">
-        <v>10.84</v>
+        <v>11.24</v>
       </c>
       <c r="DY33">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:129">
@@ -14023,25 +14023,25 @@
         <v>30</v>
       </c>
       <c r="CH34">
+        <v>74</v>
+      </c>
+      <c r="CI34">
+        <v>100</v>
+      </c>
+      <c r="CJ34">
+        <v>30</v>
+      </c>
+      <c r="CK34">
+        <v>75</v>
+      </c>
+      <c r="CL34">
+        <v>100</v>
+      </c>
+      <c r="CM34">
+        <v>30</v>
+      </c>
+      <c r="CN34">
         <v>98</v>
-      </c>
-      <c r="CI34">
-        <v>100</v>
-      </c>
-      <c r="CJ34">
-        <v>30</v>
-      </c>
-      <c r="CK34">
-        <v>74</v>
-      </c>
-      <c r="CL34">
-        <v>100</v>
-      </c>
-      <c r="CM34">
-        <v>30</v>
-      </c>
-      <c r="CN34">
-        <v>75</v>
       </c>
       <c r="CO34">
         <v>100</v>
@@ -14071,13 +14071,13 @@
         <v>74.59999999999999</v>
       </c>
       <c r="CX34">
+        <v>74</v>
+      </c>
+      <c r="CY34">
+        <v>75</v>
+      </c>
+      <c r="CZ34">
         <v>98</v>
-      </c>
-      <c r="CY34">
-        <v>74</v>
-      </c>
-      <c r="CZ34">
-        <v>75</v>
       </c>
       <c r="DA34">
         <v>100</v>
@@ -14152,7 +14152,7 @@
         <v>79.88</v>
       </c>
       <c r="DY34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:129">
@@ -14412,25 +14412,25 @@
         <v>30</v>
       </c>
       <c r="CH35">
+        <v>60</v>
+      </c>
+      <c r="CI35">
+        <v>100</v>
+      </c>
+      <c r="CJ35">
+        <v>30</v>
+      </c>
+      <c r="CK35">
+        <v>49</v>
+      </c>
+      <c r="CL35">
+        <v>100</v>
+      </c>
+      <c r="CM35">
+        <v>30</v>
+      </c>
+      <c r="CN35">
         <v>80</v>
-      </c>
-      <c r="CI35">
-        <v>100</v>
-      </c>
-      <c r="CJ35">
-        <v>30</v>
-      </c>
-      <c r="CK35">
-        <v>60</v>
-      </c>
-      <c r="CL35">
-        <v>100</v>
-      </c>
-      <c r="CM35">
-        <v>30</v>
-      </c>
-      <c r="CN35">
-        <v>49</v>
       </c>
       <c r="CO35">
         <v>100</v>
@@ -14460,13 +14460,13 @@
         <v>59.9</v>
       </c>
       <c r="CX35">
+        <v>60</v>
+      </c>
+      <c r="CY35">
+        <v>49</v>
+      </c>
+      <c r="CZ35">
         <v>80</v>
-      </c>
-      <c r="CY35">
-        <v>60</v>
-      </c>
-      <c r="CZ35">
-        <v>49</v>
       </c>
       <c r="DA35">
         <v>100</v>
@@ -14541,7 +14541,7 @@
         <v>66.89</v>
       </c>
       <c r="DY35">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:129">
@@ -14801,25 +14801,25 @@
         <v>30</v>
       </c>
       <c r="CH36">
+        <v>68</v>
+      </c>
+      <c r="CI36">
+        <v>100</v>
+      </c>
+      <c r="CJ36">
+        <v>30</v>
+      </c>
+      <c r="CK36">
+        <v>18</v>
+      </c>
+      <c r="CL36">
+        <v>100</v>
+      </c>
+      <c r="CM36">
+        <v>30</v>
+      </c>
+      <c r="CN36">
         <v>66</v>
-      </c>
-      <c r="CI36">
-        <v>100</v>
-      </c>
-      <c r="CJ36">
-        <v>30</v>
-      </c>
-      <c r="CK36">
-        <v>68</v>
-      </c>
-      <c r="CL36">
-        <v>100</v>
-      </c>
-      <c r="CM36">
-        <v>30</v>
-      </c>
-      <c r="CN36">
-        <v>18</v>
       </c>
       <c r="CO36">
         <v>100</v>
@@ -14849,13 +14849,13 @@
         <v>52.3</v>
       </c>
       <c r="CX36">
+        <v>68</v>
+      </c>
+      <c r="CY36">
+        <v>18</v>
+      </c>
+      <c r="CZ36">
         <v>66</v>
-      </c>
-      <c r="CY36">
-        <v>68</v>
-      </c>
-      <c r="CZ36">
-        <v>18</v>
       </c>
       <c r="DA36">
         <v>100</v>
@@ -14912,10 +14912,10 @@
         <v>182</v>
       </c>
       <c r="DS36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU36">
         <v>406.9</v>
@@ -14930,7 +14930,7 @@
         <v>40.69</v>
       </c>
       <c r="DY36">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:129">
@@ -15190,7 +15190,7 @@
         <v>30</v>
       </c>
       <c r="CH37">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="CI37">
         <v>100</v>
@@ -15199,7 +15199,7 @@
         <v>30</v>
       </c>
       <c r="CK37">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="CL37">
         <v>100</v>
@@ -15208,7 +15208,7 @@
         <v>30</v>
       </c>
       <c r="CN37">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="CO37">
         <v>100</v>
@@ -15238,13 +15238,13 @@
         <v>41.2</v>
       </c>
       <c r="CX37">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="CY37">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="CZ37">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="DA37">
         <v>100</v>
@@ -15307,7 +15307,7 @@
         <v>182</v>
       </c>
       <c r="DU37">
-        <v>441.8</v>
+        <v>451.8</v>
       </c>
       <c r="DV37" t="s">
         <v>182</v>
@@ -15316,10 +15316,10 @@
         <v>1000</v>
       </c>
       <c r="DX37">
-        <v>44.18</v>
+        <v>45.18000000000001</v>
       </c>
       <c r="DY37">
-        <v>31</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="38" spans="1:129">
@@ -15579,7 +15579,7 @@
         <v>30</v>
       </c>
       <c r="CH38">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="CI38">
         <v>100</v>
@@ -15588,7 +15588,7 @@
         <v>30</v>
       </c>
       <c r="CK38">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="CL38">
         <v>100</v>
@@ -15597,7 +15597,7 @@
         <v>30</v>
       </c>
       <c r="CN38">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="CO38">
         <v>100</v>
@@ -15627,13 +15627,13 @@
         <v>29.4</v>
       </c>
       <c r="CX38">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="CY38">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="CZ38">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="DA38">
         <v>100</v>
@@ -15687,16 +15687,16 @@
         <v>183</v>
       </c>
       <c r="DR38" t="s">
+        <v>182</v>
+      </c>
+      <c r="DS38" t="s">
         <v>183</v>
       </c>
-      <c r="DS38" t="s">
-        <v>182</v>
-      </c>
       <c r="DT38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU38">
-        <v>384.8</v>
+        <v>408.8</v>
       </c>
       <c r="DV38" t="s">
         <v>182</v>
@@ -15705,10 +15705,10 @@
         <v>1000</v>
       </c>
       <c r="DX38">
-        <v>38.48</v>
+        <v>40.88</v>
       </c>
       <c r="DY38">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:129">
@@ -15968,7 +15968,7 @@
         <v>30</v>
       </c>
       <c r="CH39">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CI39">
         <v>100</v>
@@ -15977,7 +15977,7 @@
         <v>30</v>
       </c>
       <c r="CK39">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="CL39">
         <v>100</v>
@@ -15986,7 +15986,7 @@
         <v>30</v>
       </c>
       <c r="CN39">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="CO39">
         <v>100</v>
@@ -16016,13 +16016,13 @@
         <v>78.59999999999999</v>
       </c>
       <c r="CX39">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CY39">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="CZ39">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="DA39">
         <v>100</v>
@@ -16076,7 +16076,7 @@
         <v>182</v>
       </c>
       <c r="DR39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DS39" t="s">
         <v>182</v>
@@ -16085,7 +16085,7 @@
         <v>182</v>
       </c>
       <c r="DU39">
-        <v>717.8000000000001</v>
+        <v>813.8000000000001</v>
       </c>
       <c r="DV39" t="s">
         <v>182</v>
@@ -16094,10 +16094,10 @@
         <v>1000</v>
       </c>
       <c r="DX39">
-        <v>71.78000000000002</v>
+        <v>81.38000000000001</v>
       </c>
       <c r="DY39">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:129">
@@ -16357,25 +16357,25 @@
         <v>30</v>
       </c>
       <c r="CH40">
+        <v>80</v>
+      </c>
+      <c r="CI40">
+        <v>100</v>
+      </c>
+      <c r="CJ40">
+        <v>30</v>
+      </c>
+      <c r="CK40">
+        <v>39</v>
+      </c>
+      <c r="CL40">
+        <v>100</v>
+      </c>
+      <c r="CM40">
+        <v>30</v>
+      </c>
+      <c r="CN40">
         <v>86</v>
-      </c>
-      <c r="CI40">
-        <v>100</v>
-      </c>
-      <c r="CJ40">
-        <v>30</v>
-      </c>
-      <c r="CK40">
-        <v>80</v>
-      </c>
-      <c r="CL40">
-        <v>100</v>
-      </c>
-      <c r="CM40">
-        <v>30</v>
-      </c>
-      <c r="CN40">
-        <v>39</v>
       </c>
       <c r="CO40">
         <v>100</v>
@@ -16405,13 +16405,13 @@
         <v>68.8</v>
       </c>
       <c r="CX40">
+        <v>80</v>
+      </c>
+      <c r="CY40">
+        <v>39</v>
+      </c>
+      <c r="CZ40">
         <v>86</v>
-      </c>
-      <c r="CY40">
-        <v>80</v>
-      </c>
-      <c r="CZ40">
-        <v>39</v>
       </c>
       <c r="DA40">
         <v>100</v>
@@ -16486,7 +16486,7 @@
         <v>65.02</v>
       </c>
       <c r="DY40">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:129">
@@ -16746,25 +16746,25 @@
         <v>30</v>
       </c>
       <c r="CH41">
+        <v>76</v>
+      </c>
+      <c r="CI41">
+        <v>100</v>
+      </c>
+      <c r="CJ41">
+        <v>30</v>
+      </c>
+      <c r="CK41">
+        <v>43</v>
+      </c>
+      <c r="CL41">
+        <v>100</v>
+      </c>
+      <c r="CM41">
+        <v>30</v>
+      </c>
+      <c r="CN41">
         <v>60</v>
-      </c>
-      <c r="CI41">
-        <v>100</v>
-      </c>
-      <c r="CJ41">
-        <v>30</v>
-      </c>
-      <c r="CK41">
-        <v>76</v>
-      </c>
-      <c r="CL41">
-        <v>100</v>
-      </c>
-      <c r="CM41">
-        <v>30</v>
-      </c>
-      <c r="CN41">
-        <v>43</v>
       </c>
       <c r="CO41">
         <v>100</v>
@@ -16794,13 +16794,13 @@
         <v>38.6</v>
       </c>
       <c r="CX41">
+        <v>76</v>
+      </c>
+      <c r="CY41">
+        <v>43</v>
+      </c>
+      <c r="CZ41">
         <v>60</v>
-      </c>
-      <c r="CY41">
-        <v>76</v>
-      </c>
-      <c r="CZ41">
-        <v>43</v>
       </c>
       <c r="DA41">
         <v>100</v>
@@ -16875,7 +16875,7 @@
         <v>43.13999999999999</v>
       </c>
       <c r="DY41">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:129">
@@ -17135,25 +17135,25 @@
         <v>30</v>
       </c>
       <c r="CH42">
+        <v>52</v>
+      </c>
+      <c r="CI42">
+        <v>100</v>
+      </c>
+      <c r="CJ42">
+        <v>30</v>
+      </c>
+      <c r="CK42">
+        <v>73</v>
+      </c>
+      <c r="CL42">
+        <v>100</v>
+      </c>
+      <c r="CM42">
+        <v>30</v>
+      </c>
+      <c r="CN42">
         <v>60</v>
-      </c>
-      <c r="CI42">
-        <v>100</v>
-      </c>
-      <c r="CJ42">
-        <v>30</v>
-      </c>
-      <c r="CK42">
-        <v>52</v>
-      </c>
-      <c r="CL42">
-        <v>100</v>
-      </c>
-      <c r="CM42">
-        <v>30</v>
-      </c>
-      <c r="CN42">
-        <v>73</v>
       </c>
       <c r="CO42">
         <v>100</v>
@@ -17183,13 +17183,13 @@
         <v>83</v>
       </c>
       <c r="CX42">
+        <v>52</v>
+      </c>
+      <c r="CY42">
+        <v>73</v>
+      </c>
+      <c r="CZ42">
         <v>60</v>
-      </c>
-      <c r="CY42">
-        <v>52</v>
-      </c>
-      <c r="CZ42">
-        <v>73</v>
       </c>
       <c r="DA42">
         <v>100</v>
@@ -17264,7 +17264,7 @@
         <v>73.82000000000001</v>
       </c>
       <c r="DY42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:129">
@@ -17524,25 +17524,25 @@
         <v>30</v>
       </c>
       <c r="CH43">
+        <v>60</v>
+      </c>
+      <c r="CI43">
+        <v>100</v>
+      </c>
+      <c r="CJ43">
+        <v>30</v>
+      </c>
+      <c r="CK43">
+        <v>26</v>
+      </c>
+      <c r="CL43">
+        <v>100</v>
+      </c>
+      <c r="CM43">
+        <v>30</v>
+      </c>
+      <c r="CN43">
         <v>72</v>
-      </c>
-      <c r="CI43">
-        <v>100</v>
-      </c>
-      <c r="CJ43">
-        <v>30</v>
-      </c>
-      <c r="CK43">
-        <v>60</v>
-      </c>
-      <c r="CL43">
-        <v>100</v>
-      </c>
-      <c r="CM43">
-        <v>30</v>
-      </c>
-      <c r="CN43">
-        <v>26</v>
       </c>
       <c r="CO43">
         <v>100</v>
@@ -17572,14 +17572,14 @@
         <v>43.6</v>
       </c>
       <c r="CX43">
+        <v>60</v>
+      </c>
+      <c r="CY43">
+        <v>26</v>
+      </c>
+      <c r="CZ43">
         <v>72</v>
       </c>
-      <c r="CY43">
-        <v>60</v>
-      </c>
-      <c r="CZ43">
-        <v>26</v>
-      </c>
       <c r="DA43">
         <v>100</v>
       </c>
@@ -17635,10 +17635,10 @@
         <v>182</v>
       </c>
       <c r="DS43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU43">
         <v>432.2</v>
@@ -17653,7 +17653,7 @@
         <v>43.22000000000001</v>
       </c>
       <c r="DY43">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:129">
@@ -17913,7 +17913,7 @@
         <v>30</v>
       </c>
       <c r="CH44">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="CI44">
         <v>100</v>
@@ -17922,7 +17922,7 @@
         <v>30</v>
       </c>
       <c r="CK44">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="CL44">
         <v>100</v>
@@ -17931,7 +17931,7 @@
         <v>30</v>
       </c>
       <c r="CN44">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="CO44">
         <v>100</v>
@@ -17961,13 +17961,13 @@
         <v>58.2</v>
       </c>
       <c r="CX44">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="CY44">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="CZ44">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="DA44">
         <v>100</v>
@@ -18021,7 +18021,7 @@
         <v>182</v>
       </c>
       <c r="DR44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DS44" t="s">
         <v>182</v>
@@ -18030,7 +18030,7 @@
         <v>182</v>
       </c>
       <c r="DU44">
-        <v>615.5999999999999</v>
+        <v>695.5999999999999</v>
       </c>
       <c r="DV44" t="s">
         <v>182</v>
@@ -18039,10 +18039,10 @@
         <v>1000</v>
       </c>
       <c r="DX44">
-        <v>61.56</v>
+        <v>69.55999999999999</v>
       </c>
       <c r="DY44">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:129">
@@ -18302,25 +18302,25 @@
         <v>30</v>
       </c>
       <c r="CH45">
+        <v>68</v>
+      </c>
+      <c r="CI45">
+        <v>100</v>
+      </c>
+      <c r="CJ45">
+        <v>30</v>
+      </c>
+      <c r="CK45">
+        <v>27</v>
+      </c>
+      <c r="CL45">
+        <v>100</v>
+      </c>
+      <c r="CM45">
+        <v>30</v>
+      </c>
+      <c r="CN45">
         <v>62</v>
-      </c>
-      <c r="CI45">
-        <v>100</v>
-      </c>
-      <c r="CJ45">
-        <v>30</v>
-      </c>
-      <c r="CK45">
-        <v>68</v>
-      </c>
-      <c r="CL45">
-        <v>100</v>
-      </c>
-      <c r="CM45">
-        <v>30</v>
-      </c>
-      <c r="CN45">
-        <v>27</v>
       </c>
       <c r="CO45">
         <v>100</v>
@@ -18350,14 +18350,14 @@
         <v>41.2</v>
       </c>
       <c r="CX45">
+        <v>68</v>
+      </c>
+      <c r="CY45">
+        <v>27</v>
+      </c>
+      <c r="CZ45">
         <v>62</v>
       </c>
-      <c r="CY45">
-        <v>68</v>
-      </c>
-      <c r="CZ45">
-        <v>27</v>
-      </c>
       <c r="DA45">
         <v>100</v>
       </c>
@@ -18413,10 +18413,10 @@
         <v>182</v>
       </c>
       <c r="DS45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU45">
         <v>481.8</v>
@@ -18691,25 +18691,25 @@
         <v>30</v>
       </c>
       <c r="CH46">
+        <v>60</v>
+      </c>
+      <c r="CI46">
+        <v>100</v>
+      </c>
+      <c r="CJ46">
+        <v>30</v>
+      </c>
+      <c r="CK46">
+        <v>70</v>
+      </c>
+      <c r="CL46">
+        <v>100</v>
+      </c>
+      <c r="CM46">
+        <v>30</v>
+      </c>
+      <c r="CN46">
         <v>86</v>
-      </c>
-      <c r="CI46">
-        <v>100</v>
-      </c>
-      <c r="CJ46">
-        <v>30</v>
-      </c>
-      <c r="CK46">
-        <v>60</v>
-      </c>
-      <c r="CL46">
-        <v>100</v>
-      </c>
-      <c r="CM46">
-        <v>30</v>
-      </c>
-      <c r="CN46">
-        <v>70</v>
       </c>
       <c r="CO46">
         <v>100</v>
@@ -18739,13 +18739,13 @@
         <v>58.4</v>
       </c>
       <c r="CX46">
+        <v>60</v>
+      </c>
+      <c r="CY46">
+        <v>70</v>
+      </c>
+      <c r="CZ46">
         <v>86</v>
-      </c>
-      <c r="CY46">
-        <v>60</v>
-      </c>
-      <c r="CZ46">
-        <v>70</v>
       </c>
       <c r="DA46">
         <v>100</v>
@@ -18820,7 +18820,7 @@
         <v>59.28</v>
       </c>
       <c r="DY46">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:129">
@@ -19080,25 +19080,25 @@
         <v>30</v>
       </c>
       <c r="CH47">
+        <v>46</v>
+      </c>
+      <c r="CI47">
+        <v>100</v>
+      </c>
+      <c r="CJ47">
+        <v>30</v>
+      </c>
+      <c r="CK47">
+        <v>22</v>
+      </c>
+      <c r="CL47">
+        <v>100</v>
+      </c>
+      <c r="CM47">
+        <v>30</v>
+      </c>
+      <c r="CN47">
         <v>80</v>
-      </c>
-      <c r="CI47">
-        <v>100</v>
-      </c>
-      <c r="CJ47">
-        <v>30</v>
-      </c>
-      <c r="CK47">
-        <v>46</v>
-      </c>
-      <c r="CL47">
-        <v>100</v>
-      </c>
-      <c r="CM47">
-        <v>30</v>
-      </c>
-      <c r="CN47">
-        <v>22</v>
       </c>
       <c r="CO47">
         <v>100</v>
@@ -19128,14 +19128,14 @@
         <v>54.64</v>
       </c>
       <c r="CX47">
+        <v>46</v>
+      </c>
+      <c r="CY47">
+        <v>22</v>
+      </c>
+      <c r="CZ47">
         <v>80</v>
       </c>
-      <c r="CY47">
-        <v>46</v>
-      </c>
-      <c r="CZ47">
-        <v>22</v>
-      </c>
       <c r="DA47">
         <v>100</v>
       </c>
@@ -19191,10 +19191,10 @@
         <v>182</v>
       </c>
       <c r="DS47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DT47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU47">
         <v>503.64</v>
@@ -19469,7 +19469,7 @@
         <v>30</v>
       </c>
       <c r="CH48">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="CI48">
         <v>100</v>
@@ -19478,7 +19478,7 @@
         <v>30</v>
       </c>
       <c r="CK48">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="CL48">
         <v>100</v>
@@ -19487,7 +19487,7 @@
         <v>30</v>
       </c>
       <c r="CN48">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="CO48">
         <v>100</v>
@@ -19517,13 +19517,13 @@
         <v>44.64</v>
       </c>
       <c r="CX48">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="CY48">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="CZ48">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="DA48">
         <v>100</v>
@@ -19586,7 +19586,7 @@
         <v>182</v>
       </c>
       <c r="DU48">
-        <v>431.4399999999999</v>
+        <v>451.4399999999999</v>
       </c>
       <c r="DV48" t="s">
         <v>182</v>
@@ -19595,10 +19595,10 @@
         <v>1000</v>
       </c>
       <c r="DX48">
-        <v>43.14399999999999</v>
+        <v>45.144</v>
       </c>
       <c r="DY48">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:129">
@@ -19858,25 +19858,25 @@
         <v>30</v>
       </c>
       <c r="CH49">
+        <v>50</v>
+      </c>
+      <c r="CI49">
+        <v>100</v>
+      </c>
+      <c r="CJ49">
+        <v>30</v>
+      </c>
+      <c r="CK49">
+        <v>42</v>
+      </c>
+      <c r="CL49">
+        <v>100</v>
+      </c>
+      <c r="CM49">
+        <v>30</v>
+      </c>
+      <c r="CN49">
         <v>60</v>
-      </c>
-      <c r="CI49">
-        <v>100</v>
-      </c>
-      <c r="CJ49">
-        <v>30</v>
-      </c>
-      <c r="CK49">
-        <v>50</v>
-      </c>
-      <c r="CL49">
-        <v>100</v>
-      </c>
-      <c r="CM49">
-        <v>30</v>
-      </c>
-      <c r="CN49">
-        <v>42</v>
       </c>
       <c r="CO49">
         <v>100</v>
@@ -19906,13 +19906,13 @@
         <v>66.2</v>
       </c>
       <c r="CX49">
+        <v>50</v>
+      </c>
+      <c r="CY49">
+        <v>42</v>
+      </c>
+      <c r="CZ49">
         <v>60</v>
-      </c>
-      <c r="CY49">
-        <v>50</v>
-      </c>
-      <c r="CZ49">
-        <v>42</v>
       </c>
       <c r="DA49">
         <v>100</v>
@@ -19987,7 +19987,7 @@
         <v>55.7</v>
       </c>
       <c r="DY49">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:129">
@@ -20247,7 +20247,7 @@
         <v>30</v>
       </c>
       <c r="CH50">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="CI50">
         <v>100</v>
@@ -20256,7 +20256,7 @@
         <v>30</v>
       </c>
       <c r="CK50">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="CL50">
         <v>100</v>
@@ -20265,7 +20265,7 @@
         <v>30</v>
       </c>
       <c r="CN50">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="CO50">
         <v>100</v>
@@ -20295,13 +20295,13 @@
         <v>44.6</v>
       </c>
       <c r="CX50">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="CY50">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="CZ50">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="DA50">
         <v>100</v>
@@ -20355,16 +20355,16 @@
         <v>182</v>
       </c>
       <c r="DR50" t="s">
+        <v>182</v>
+      </c>
+      <c r="DS50" t="s">
         <v>183</v>
       </c>
-      <c r="DS50" t="s">
-        <v>182</v>
-      </c>
       <c r="DT50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU50">
-        <v>316.6</v>
+        <v>366.6</v>
       </c>
       <c r="DV50" t="s">
         <v>182</v>
@@ -20373,7 +20373,7 @@
         <v>1000</v>
       </c>
       <c r="DX50">
-        <v>31.66</v>
+        <v>36.66</v>
       </c>
       <c r="DY50">
         <v>46</v>
@@ -20636,7 +20636,7 @@
         <v>30</v>
       </c>
       <c r="CH51">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="CI51">
         <v>100</v>
@@ -20645,7 +20645,7 @@
         <v>30</v>
       </c>
       <c r="CK51">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="CL51">
         <v>100</v>
@@ -20654,7 +20654,7 @@
         <v>30</v>
       </c>
       <c r="CN51">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="CO51">
         <v>100</v>
@@ -20684,13 +20684,13 @@
         <v>27.44</v>
       </c>
       <c r="CX51">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="CY51">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="CZ51">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="DA51">
         <v>100</v>
@@ -20744,16 +20744,16 @@
         <v>183</v>
       </c>
       <c r="DR51" t="s">
+        <v>182</v>
+      </c>
+      <c r="DS51" t="s">
         <v>183</v>
       </c>
-      <c r="DS51" t="s">
-        <v>182</v>
-      </c>
       <c r="DT51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU51">
-        <v>367.24</v>
+        <v>393.24</v>
       </c>
       <c r="DV51" t="s">
         <v>182</v>
@@ -20762,7 +20762,7 @@
         <v>1000</v>
       </c>
       <c r="DX51">
-        <v>36.724</v>
+        <v>39.32400000000001</v>
       </c>
       <c r="DY51">
         <v>42</v>
@@ -21025,7 +21025,7 @@
         <v>30</v>
       </c>
       <c r="CH52">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="CI52">
         <v>100</v>
@@ -21034,7 +21034,7 @@
         <v>30</v>
       </c>
       <c r="CK52">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="CL52">
         <v>100</v>
@@ -21043,7 +21043,7 @@
         <v>30</v>
       </c>
       <c r="CN52">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="CO52">
         <v>100</v>
@@ -21073,13 +21073,13 @@
         <v>29.4</v>
       </c>
       <c r="CX52">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="CY52">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="CZ52">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="DA52">
         <v>100</v>
@@ -21133,16 +21133,16 @@
         <v>183</v>
       </c>
       <c r="DR52" t="s">
+        <v>182</v>
+      </c>
+      <c r="DS52" t="s">
         <v>183</v>
       </c>
-      <c r="DS52" t="s">
-        <v>182</v>
-      </c>
       <c r="DT52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="DU52">
-        <v>321.2</v>
+        <v>391.2</v>
       </c>
       <c r="DV52" t="s">
         <v>182</v>
@@ -21151,10 +21151,10 @@
         <v>1000</v>
       </c>
       <c r="DX52">
-        <v>32.12</v>
+        <v>39.12</v>
       </c>
       <c r="DY52">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
